--- a/简称识别.xlsx
+++ b/简称识别.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25935" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>论文标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,67 @@
   <si>
     <t>An Improved Method for Chinese Company Name
 and Abbreviation Recognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验语料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用了150篇金融新闻报道，通过手工标注出机构名和简称。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了一种综合了规则、字典与统计学习的方法。
+1.StandfordNER和FudanNER识别出公司名
+2.扩展字典。利用规则生成一个简称字典
+3.对识别出的简称，利用规则生成其对应的简称，判断上下文中是否存在简称，如果存在，则认为识别出了一个全称-简称对，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实根本的问题有两个：1.全称的识别依赖以StandfordNER和FudanNER
+2.简称的生成依赖于规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文组织机构名称与简称的识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全称与简称的识别都基于规则。首先识别出全称，再根据规则生成简称，然后在上下文中检索简称，如果存在，则认为存在一个匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含有654个机构名称的280篇文章作为开放测试集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A long journey to short abbreviations: developing an open-source framework for clinical abbreviation recognition and disambiguation (CARD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了一种医疗实体简称（疾病名、药名）识别与消歧的框架(CARD)。对简称的识别视为一个二分类的为题，采用随机森林、决策树、SVM。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collaborative Recognition and 
+Recovery of the Chinese Intercept Abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义的特征还是可以参考一下的
+关于简称的三个方向：recognition、prediction、recovery
+关于CRF公式的引用
+论文里的整个方法还是可以参考一下的，和我的思路挺接近的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,21 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="5" width="58.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="5" width="43.375" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,10 +499,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -453,11 +518,12 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -470,11 +536,12 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -484,6 +551,60 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2007</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/简称识别.xlsx
+++ b/简称识别.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>论文标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,13 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提出了一种综合了规则、字典与统计学习的方法。
-1.StandfordNER和FudanNER识别出公司名
-2.扩展字典。利用规则生成一个简称字典
-3.对识别出的简称，利用规则生成其对应的简称，判断上下文中是否存在简称，如果存在，则认为识别出了一个全称-简称对，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其实根本的问题有两个：1.全称的识别依赖以StandfordNER和FudanNER
 2.简称的生成依赖于规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,14 +115,6 @@
   </si>
   <si>
     <t>A long journey to short abbreviations: developing an open-source framework for clinical abbreviation recognition and disambiguation (CARD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出了一种医疗实体简称（疾病名、药名）识别与消歧的框架(CARD)。对简称的识别视为一个二分类的为题，采用随机森林、决策树、SVM。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,6 +127,67 @@
 关于简称的三个方向：recognition、prediction、recovery
 关于CRF公式的引用
 论文里的整个方法还是可以参考一下的，和我的思路挺接近的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3] an algorithm to extract abbreviations from MEDLINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]Recognition of Chinese company abbreviations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]Identifying abbreviation definitions machine learning with naturally labeled data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于规则对英文简称的识别，主要利用首字母、大写字母、音节边界等多种规则来识别简称。尽管中文简称与英文简称的构成方式相类似，但是中文简称不只是全称词语首字的组合，而是可以由全称词语任何一个字组合构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了一种基于规则的方法用于公司名简称识别，该方法在公司名的全称第一次出现时充分利用其给出的定义信息，作为以后识别机构名的基础，该方法简称的识别依赖于全称信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]Recognition of Chinese organization names and  abbreviations和5是同一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并多个连续出现的组织机构名称：南昌市公安局西湖分局筷子巷派出所
+对简称的识别依赖于全称，根据每一条识别出的全称，根据规则生成相应的简称规则集，利用简称规则集获得该机构的简称。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用机器学习的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了一种医疗实体简称（疾病名、药名）识别与消歧的框架(CARD)。对简称的识别视为一个二分类的问题，采用随机森林、决策树、SVM。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构图、流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了一种综合了规则、字典与统计学习的方法。
+1.StandfordNER和FudanNER识别出公司名
+2.扩展字典。利用规则生成一个简称字典
+3.对识别出的简称，利用规则生成其对应的简称，判断上下文中是否存在简称，如果存在，则认为识别出了一个全称-简称对，
+其实方法很简单，写得很多很复杂，本质上就是在识别出的全称的基础上构造出简称。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,6 +251,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114333</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4542077</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1285521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17411733" y="3924300"/>
+          <a:ext cx="4427744" cy="1161696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5207475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2933298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17402175" y="5210175"/>
+          <a:ext cx="5102700" cy="1523598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -483,9 +610,10 @@
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="5" width="43.375" customWidth="1"/>
     <col min="6" max="6" width="58.75" customWidth="1"/>
+    <col min="7" max="7" width="71.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +632,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -523,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -541,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -552,63 +683,120 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>2007</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B6">
         <v>2017</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="245.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2017</v>
       </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>2005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>2003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>